--- a/volkswagen.xlsx
+++ b/volkswagen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/660d30a862cc4521/Documentos/2021.1/Ciencia dos Dados 2A/Projeto 1/P1-2021-Cdados-3A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudup\Documents\CDADOS21\P1-2021-Cdados-2A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{9660DD74-61A9-F140-AD3D-CD87F626FD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1EA8E81C-CDFC-476E-9317-3A87DAC2506A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E085274-12E0-4060-AF84-3EDC0976F1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11532" yWindow="1044" windowWidth="11508" windowHeight="6180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="502">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2217,7 +2217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4644,10 +4644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4655,562 +4655,883 @@
     <col min="1" max="1" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>411</v>
       </c>

--- a/volkswagen.xlsx
+++ b/volkswagen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudup\Documents\CDADOS21\P1-2021-Cdados-2A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/660d30a862cc4521/Documentos/2021.1/Ciencia dos Dados 2A/Projeto 1/P1-2021-Cdados-3A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E085274-12E0-4060-AF84-3EDC0976F1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{9660DD74-61A9-F140-AD3D-CD87F626FD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A227986C-F5B4-4AA6-A6B4-4C3BB875148A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1868,7 +1868,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1876,6 +1876,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2217,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N301"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,7 +2241,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2248,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2264,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2280,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2288,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2296,7 +2298,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2312,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2336,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2352,7 +2354,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2360,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2392,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2400,7 +2402,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2408,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2432,7 +2434,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2448,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2472,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2509,7 +2511,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2549,7 +2551,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2557,7 +2559,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2565,7 +2567,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2605,7 +2607,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2653,7 +2655,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2661,7 +2663,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2677,7 +2679,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2685,7 +2687,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2693,7 +2695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2701,7 +2703,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2757,7 +2759,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2789,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2813,7 +2815,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2821,7 +2823,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2845,7 +2847,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2853,7 +2855,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2869,7 +2871,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2909,7 +2911,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2917,7 +2919,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2933,7 +2935,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,7 +2943,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2957,7 +2959,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2965,7 +2967,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3013,7 +3015,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -3053,7 +3055,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -3061,7 +3063,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -3069,7 +3071,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -3077,7 +3079,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -3110,7 +3112,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
@@ -3134,7 +3136,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3166,7 +3168,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3198,7 +3200,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3246,7 +3248,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3310,7 +3312,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3334,7 +3336,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3366,7 +3368,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3374,7 +3376,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3406,7 +3408,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3422,7 +3424,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3430,7 +3432,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3446,7 +3448,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3486,7 +3488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3494,7 +3496,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3502,7 +3504,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3510,7 +3512,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3518,7 +3520,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3526,7 +3528,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3566,7 +3568,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3582,7 +3584,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3590,7 +3592,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3638,7 +3640,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3710,7 +3712,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3758,7 +3760,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3798,7 +3800,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -3846,7 +3848,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -3854,7 +3856,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -3878,7 +3880,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -3926,7 +3928,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -3942,7 +3944,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -3950,7 +3952,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -3974,7 +3976,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -3998,7 +4000,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4006,7 +4008,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4022,7 +4024,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4070,7 +4072,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4078,7 +4080,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4086,7 +4088,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4110,7 +4112,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4118,7 +4120,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4134,7 +4136,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4158,7 +4160,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4166,7 +4168,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4222,7 +4224,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4230,7 +4232,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4286,7 +4288,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -4294,7 +4296,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -4318,7 +4320,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -4414,7 +4416,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -4422,7 +4424,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -4430,7 +4432,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -4478,7 +4480,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -4494,7 +4496,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -4502,7 +4504,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -4534,7 +4536,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -4558,7 +4560,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -4566,7 +4568,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -4582,7 +4584,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -4590,7 +4592,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -4598,7 +4600,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -4646,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4659,7 +4661,7 @@
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4667,7 +4669,7 @@
       <c r="A2" t="s">
         <v>301</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4675,7 +4677,7 @@
       <c r="A3" t="s">
         <v>302</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4683,7 +4685,7 @@
       <c r="A4" t="s">
         <v>303</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4691,7 +4693,7 @@
       <c r="A5" t="s">
         <v>304</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4699,7 +4701,7 @@
       <c r="A6" t="s">
         <v>305</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4707,7 +4709,7 @@
       <c r="A7" t="s">
         <v>306</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4715,7 +4717,7 @@
       <c r="A8" t="s">
         <v>307</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4723,7 +4725,7 @@
       <c r="A9" t="s">
         <v>308</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4731,7 +4733,7 @@
       <c r="A10" t="s">
         <v>309</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4739,7 +4741,7 @@
       <c r="A11" t="s">
         <v>310</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4747,7 +4749,7 @@
       <c r="A12" t="s">
         <v>311</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4755,7 +4757,7 @@
       <c r="A13" t="s">
         <v>312</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4763,7 +4765,7 @@
       <c r="A14" t="s">
         <v>313</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4771,7 +4773,7 @@
       <c r="A15" t="s">
         <v>314</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4779,7 +4781,7 @@
       <c r="A16" t="s">
         <v>315</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4787,7 +4789,7 @@
       <c r="A17" t="s">
         <v>316</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4795,7 +4797,7 @@
       <c r="A18" t="s">
         <v>317</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4803,7 +4805,7 @@
       <c r="A19" t="s">
         <v>318</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4811,7 +4813,7 @@
       <c r="A20" t="s">
         <v>319</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4819,7 +4821,7 @@
       <c r="A21" t="s">
         <v>320</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4827,7 +4829,7 @@
       <c r="A22" t="s">
         <v>321</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4835,7 +4837,7 @@
       <c r="A23" t="s">
         <v>322</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4843,7 +4845,7 @@
       <c r="A24" t="s">
         <v>323</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4851,7 +4853,7 @@
       <c r="A25" t="s">
         <v>324</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4859,7 +4861,7 @@
       <c r="A26" t="s">
         <v>325</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4867,7 +4869,7 @@
       <c r="A27" t="s">
         <v>326</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4875,7 +4877,7 @@
       <c r="A28" t="s">
         <v>327</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4883,7 +4885,7 @@
       <c r="A29" t="s">
         <v>328</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4891,7 +4893,7 @@
       <c r="A30" t="s">
         <v>329</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4899,7 +4901,7 @@
       <c r="A31" t="s">
         <v>330</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4907,7 +4909,7 @@
       <c r="A32" t="s">
         <v>331</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4915,7 +4917,7 @@
       <c r="A33" t="s">
         <v>332</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4923,7 +4925,7 @@
       <c r="A34" t="s">
         <v>333</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4931,7 +4933,7 @@
       <c r="A35" t="s">
         <v>334</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4939,7 +4941,7 @@
       <c r="A36" t="s">
         <v>335</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4947,7 +4949,7 @@
       <c r="A37" t="s">
         <v>336</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4955,7 +4957,7 @@
       <c r="A38" t="s">
         <v>337</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4963,7 +4965,7 @@
       <c r="A39" t="s">
         <v>338</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4971,7 +4973,7 @@
       <c r="A40" t="s">
         <v>339</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>2</v>
       </c>
     </row>
@@ -4979,7 +4981,7 @@
       <c r="A41" t="s">
         <v>340</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4987,7 +4989,7 @@
       <c r="A42" t="s">
         <v>341</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>3</v>
       </c>
     </row>
@@ -4995,7 +4997,7 @@
       <c r="A43" t="s">
         <v>342</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5003,7 +5005,7 @@
       <c r="A44" t="s">
         <v>343</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5011,7 +5013,7 @@
       <c r="A45" t="s">
         <v>344</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5019,7 +5021,7 @@
       <c r="A46" t="s">
         <v>345</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5027,7 +5029,7 @@
       <c r="A47" t="s">
         <v>346</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5035,7 +5037,7 @@
       <c r="A48" t="s">
         <v>347</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5043,7 +5045,7 @@
       <c r="A49" t="s">
         <v>348</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5051,7 +5053,7 @@
       <c r="A50" t="s">
         <v>349</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5059,7 +5061,7 @@
       <c r="A51" t="s">
         <v>350</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5067,7 +5069,7 @@
       <c r="A52" t="s">
         <v>351</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5075,7 +5077,7 @@
       <c r="A53" t="s">
         <v>352</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5083,7 +5085,7 @@
       <c r="A54" t="s">
         <v>353</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5091,7 +5093,7 @@
       <c r="A55" t="s">
         <v>354</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5099,7 +5101,7 @@
       <c r="A56" t="s">
         <v>355</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5107,7 +5109,7 @@
       <c r="A57" t="s">
         <v>356</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5115,7 +5117,7 @@
       <c r="A58" t="s">
         <v>357</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5123,7 +5125,7 @@
       <c r="A59" t="s">
         <v>358</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5131,7 +5133,7 @@
       <c r="A60" t="s">
         <v>359</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5139,7 +5141,7 @@
       <c r="A61" t="s">
         <v>360</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5147,7 +5149,7 @@
       <c r="A62" t="s">
         <v>361</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5155,7 +5157,7 @@
       <c r="A63" t="s">
         <v>362</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5163,7 +5165,7 @@
       <c r="A64" t="s">
         <v>363</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5171,7 +5173,7 @@
       <c r="A65" t="s">
         <v>364</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5179,7 +5181,7 @@
       <c r="A66" t="s">
         <v>365</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5187,7 +5189,7 @@
       <c r="A67" t="s">
         <v>366</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5195,7 +5197,7 @@
       <c r="A68" t="s">
         <v>367</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5203,7 +5205,7 @@
       <c r="A69" t="s">
         <v>368</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5211,7 +5213,7 @@
       <c r="A70" t="s">
         <v>369</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5219,7 +5221,7 @@
       <c r="A71" t="s">
         <v>370</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5227,7 +5229,7 @@
       <c r="A72" t="s">
         <v>371</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5235,7 +5237,7 @@
       <c r="A73" t="s">
         <v>372</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5243,7 +5245,7 @@
       <c r="A74" t="s">
         <v>373</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5251,7 +5253,7 @@
       <c r="A75" t="s">
         <v>374</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5259,7 +5261,7 @@
       <c r="A76" t="s">
         <v>375</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5267,7 +5269,7 @@
       <c r="A77" t="s">
         <v>376</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5275,7 +5277,7 @@
       <c r="A78" t="s">
         <v>377</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5283,7 +5285,7 @@
       <c r="A79" t="s">
         <v>378</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5291,7 +5293,7 @@
       <c r="A80" t="s">
         <v>379</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5299,7 +5301,7 @@
       <c r="A81" t="s">
         <v>380</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5307,7 +5309,7 @@
       <c r="A82" t="s">
         <v>381</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5315,7 +5317,7 @@
       <c r="A83" t="s">
         <v>382</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5323,7 +5325,7 @@
       <c r="A84" t="s">
         <v>383</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5331,7 +5333,7 @@
       <c r="A85" t="s">
         <v>384</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5339,7 +5341,7 @@
       <c r="A86" t="s">
         <v>385</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5347,7 +5349,7 @@
       <c r="A87" t="s">
         <v>386</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5355,7 +5357,7 @@
       <c r="A88" t="s">
         <v>387</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5363,7 +5365,7 @@
       <c r="A89" t="s">
         <v>388</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5371,7 +5373,7 @@
       <c r="A90" t="s">
         <v>389</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5379,7 +5381,7 @@
       <c r="A91" t="s">
         <v>390</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5387,7 +5389,7 @@
       <c r="A92" t="s">
         <v>391</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5395,7 +5397,7 @@
       <c r="A93" t="s">
         <v>392</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5403,7 +5405,7 @@
       <c r="A94" t="s">
         <v>393</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5411,7 +5413,7 @@
       <c r="A95" t="s">
         <v>394</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5419,7 +5421,7 @@
       <c r="A96" t="s">
         <v>395</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5427,7 +5429,7 @@
       <c r="A97" t="s">
         <v>396</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5435,7 +5437,7 @@
       <c r="A98" t="s">
         <v>397</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5443,7 +5445,7 @@
       <c r="A99" t="s">
         <v>398</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5451,7 +5453,7 @@
       <c r="A100" t="s">
         <v>399</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5461,7 @@
       <c r="A101" t="s">
         <v>400</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5467,7 +5469,7 @@
       <c r="A102" t="s">
         <v>401</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5475,7 +5477,7 @@
       <c r="A103" t="s">
         <v>402</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5483,7 +5485,7 @@
       <c r="A104" t="s">
         <v>403</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5491,7 +5493,7 @@
       <c r="A105" t="s">
         <v>404</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5499,7 +5501,7 @@
       <c r="A106" t="s">
         <v>405</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5507,7 +5509,7 @@
       <c r="A107" t="s">
         <v>406</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5515,470 +5517,752 @@
       <c r="A108" t="s">
         <v>407</v>
       </c>
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>408</v>
       </c>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>409</v>
       </c>
+      <c r="B110" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>410</v>
       </c>
+      <c r="B111" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B112" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B113" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B116" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B117" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B118" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B119" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B120" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B121" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B122" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B123" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B124" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B126" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B127" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B128" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B129" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B131" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B133" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B134" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B135" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B136" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B137" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B140" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B141" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B142" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B143" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B144" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B147" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B148" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B150" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B155" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B156" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B157" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B158" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B159" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B161" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B164" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B165" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B168" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B174" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B178" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B180" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B181" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B182" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B184" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B188" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B193" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B194" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B195" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B198" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B200" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>500</v>
+      </c>
+      <c r="B201" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/volkswagen.xlsx
+++ b/volkswagen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/660d30a862cc4521/Documentos/2021.1/Ciencia dos Dados 2A/Projeto 1/P1-2021-Cdados-3A/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loazevedo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="13_ncr:1_{9660DD74-61A9-F140-AD3D-CD87F626FD90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A227986C-F5B4-4AA6-A6B4-4C3BB875148A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43197939-D0AE-8E4D-9F4F-390EDD67DF17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="752">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1791,6 +1791,885 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>@fiatbr vamos fazer uma vaquinha de um suv da volkswagen para juliette, que levou mais plaquinha, nessa prova bosta! expôs a juliette ao ridículo isso sim!</t>
+  </si>
+  <si>
+    <t>@maah_yuki o volkswagen https://t.co/s2yqttqa8k</t>
+  </si>
+  <si>
+    <t>atenção!
+@vwbrasil suspende produção até abril devido à pandemia
+a volkswagen do brasil anunciou a paralisação de todas as atividades fabris no brasil por 12 dias corridos. a suspensão de operações em suas quatro plantas começa nessa quarta-feira (24).
+#herbie #vw #covid19 https://t.co/nvs6hsdpgb</t>
+  </si>
+  <si>
+    <t>volkswagen suspende produção no brasil por causa do covid-19 https://t.co/ifkt2c2zc0</t>
+  </si>
+  <si>
+    <t>essa carta dos banqueiros me parece muito uma coisa que tenha rolado por parte, sei lá, da volkswagen depois do holocausto</t>
+  </si>
+  <si>
+    <t>vai te fuder fiat, estragando a segunda-feira pra fazer publi com esse jogo sem graça. a partir de hoje esse perfil faz publi gratuita pra volkswagen</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cd 1.8 1984. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/bha7rhoy4k https://t.co/jxecrtemow</t>
+  </si>
+  <si>
+    <t>🚨 𝐕𝐨𝐥𝐤𝐬𝐰𝐚𝐠𝐞𝐧 𝐏𝐨𝐥𝐨 𝟏.𝟎 𝐂𝐨𝐧𝐟𝐨𝐫𝐭𝐥𝐢𝐧𝐞 🚨
+🔵 aceitamos retomas
+🔵 financiamento até 120 meses s/ entrada
+🔵 garantia da marca
+𝐒𝐚𝐢𝐛𝐚 𝐦𝐚𝐢𝐬 𝐚𝐪𝐮𝐢 👉 https://t.co/rxl9swwdwb
+𝑪𝑶𝑴𝑷𝑹𝑬 𝑪𝑶𝑴 𝑺𝑬𝑮𝑼𝑹𝑨𝑵𝑪̧𝑨 https://t.co/aabjnevajz</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cd 1.8 álcool 1986. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/a5z0u6tla1 https://t.co/rlabjvk12f</t>
+  </si>
+  <si>
+    <t>@shaanikafab osho 😅</t>
+  </si>
+  <si>
+    <t>@da_goiabeira @psdboficial esse ai é mais q quer se aparecer, ta preocupado  com o povo não....
+eqto isso,  quem realmente se preocupa:  a volkswagen suspende a produção de todas suas fábricas por 10 dias, para ajudar no combate à covid, sem suspensão de salários.
+empatia que chama?</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 1.8 álcool 1987. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/aya1sutelm https://t.co/rlzhmtull3</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 2.0 álcool 2p 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/m2odwuqesk https://t.co/hjdvrwwgrc</t>
+  </si>
+  <si>
+    <t>volkswagen e volvo vão paralisar suas fábricas no brasil por causa do avanço da covid-19.
+a medida afeta 2 mil funcionários.
+mas não pode decretar lockdown senão atrapalha a economia, né?
+https://t.co/43frlhwdax</t>
+  </si>
+  <si>
+    <t>e eles vão dar um carro que ainda nem saiu pro vencedor, ou seja .... tá dando muita grana 
+esse fiat parece o up! e o up! é da volkswagen 
+tomara que a fiat não me xingue</t>
+  </si>
+  <si>
+    <t>volkswagen também já havia anunciado suspensão de 12 dias em sua produção em quatro fábricas no brasil.
+#odia
+https://t.co/8hbrfj0f6d</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gl 2.0 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/djqekfkyux https://t.co/kqhvo0o7gv</t>
+  </si>
+  <si>
+    <t>juliette vai sair desse programa e vai  compra é um volkswagen, patroa que fala! #bbb21 https://t.co/pt6le9qh3v</t>
+  </si>
+  <si>
+    <t>depois da volkswagen....
+ou para, ou para.
+não adianta berrar, bozzonaro 🤡 https://t.co/6evso3by5s</t>
+  </si>
+  <si>
+    <t>vai tomar no cu @fiatbr cagou o jogo da discordia
+a partir de hoje só compro volkswagen</t>
+  </si>
+  <si>
+    <t>bentley, do grupo volkswagen, tem disparada de vendas em 2021 https://t.co/plnz6okazw #bentley</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum glsi 2.0 1993. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/nctumqjzty https://t.co/u8ffhepars</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum cli 1.8 1994. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/fbcw60wovv https://t.co/xkl0gnh4nz</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gl 2.0 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/iom3xh5ylt https://t.co/tucgr2h71e</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 1.8 álcool 2p 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/8jvnchugwk https://t.co/06eziloexh</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gls 2.0 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/bnxawcavzc https://t.co/aqjvcqp4gl</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 1.8 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/jh8f4skzdx https://t.co/srrvq3hp6i</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gls 2.0 1988. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/b5xzb95z8q https://t.co/xf0ufe6cez</t>
+  </si>
+  <si>
+    <t>o fechamento temporário da volkswagen no brasil pela pandemia #autoesportenacbnmarcusviniciusgasques 
+https://t.co/e9exrofehh via @podcastaddict</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum glsi 2.0 1992. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/dsrujx7btv https://t.co/yrip9gtneq</t>
+  </si>
+  <si>
+    <t>@jairbolsonaro vc só se preocupou com a economia e n fez nada contra o vírus, mas sem controle do vírus a economia vai continuar ruim. a volkswagen, por exemplo, n foi obrigada a fechar suas fábricas, mas fez pelo descontrole do vírus. vc é um inconsequente</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum mi 1.8 1998. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/sqruwfonx4 https://t.co/pioa7smply</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 1.8 álcool 1988. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/okshqpr54z https://t.co/igoyy1un3t</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum evidence 2.0 1998. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/p15ejksj1a https://t.co/2pmgkvgaad</t>
+  </si>
+  <si>
+    <t>já pensou se juliette sai do programa e compra um volkswagen????? #bbb21 https://t.co/f7jtgnrxye</t>
+  </si>
+  <si>
+    <t>um fiat mobi e um volkswagen up, os dois a 40km/h...</t>
+  </si>
+  <si>
+    <t>📷 olha o bart na área!!!😎 . . . . . #vocho #vwbug #vosvos #vwbeetle #vwfusca #fusca #beetlelove #volkswagen #aircooled #amarelojava #fusca1977 #fusca77 #campinas #safariwindows (em campinas, sao paulo)... https://t.co/qtvdnchkvb</t>
+  </si>
+  <si>
+    <t>mclaren, volkswagen, me patrocinem por favoooooor</t>
+  </si>
+  <si>
+    <t>prefiro a volkswagen  #bbb21</t>
+  </si>
+  <si>
+    <t>@mariahcp_ @04dybolo @ana_jferreira @enzopiazza_7 veículo: volkswagen fusca 1.5 8v gasolina 2p manual
+ano: 1972 1972
+cor: azul
+!!!!</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gls 2.0 at 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/sgwayydbpb https://t.co/balms3tuth</t>
+  </si>
+  <si>
+    <t>aí fiat por isso eu e minha família sempre compramos na volkswagen, decepcionada</t>
+  </si>
+  <si>
+    <t>@pao_de_batata_e urge a estatização da volkswagen e o retorno do fusquinha classico</t>
+  </si>
+  <si>
+    <t>volkswagen saveiro conheça toda a história – blogauto https://t.co/4wi2syvgaz saveiro, blogauto, conheça, história, saveiro g3, toda, volkswagen #clubedogol #vwgol #clubedogolbrasil</t>
+  </si>
+  <si>
+    <t>pelos acontecimentos recentes no #bbb21, desconfio que tem um funcionário da volkswagen infiltrado na fiat</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum cl 1.8 1993. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/jwa9b7rfyo https://t.co/r03j4ebowc</t>
+  </si>
+  <si>
+    <t>a história em miniatura da picape volkswagen saveiro
+https://t.co/tdutor9lo2</t>
+  </si>
+  <si>
+    <t>a wolkswagen afirmou que as baterias de carros elétricos serão 50% mais baratas até 2030. a montadora deseja também fazer com que os componentes da bateria sejam totalmente recicláveis nesses próximos 9 anos. confira.
+https://t.co/ksiui8nfge</t>
+  </si>
+  <si>
+    <t>volkswagen suspenderá produção de veículos no brasil https://t.co/oru1zj521q
+#economicnewsbrasil https://t.co/s0kjrdsckk</t>
+  </si>
+  <si>
+    <t>depois da volkswagen, as montadoras volvo e scania também paralisam produções a partir desta semana por causa do avanço do #coronavirus no país. https://t.co/rerdn77ls2</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 2.0 1988. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/lyv3adnzfx https://t.co/abhk9whl6b</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gls 2.0 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/hvambuvjks https://t.co/dnlt7j8wzd</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum exclusiv 2.0 1997. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/kja75tt6bt https://t.co/h1vweq5rpc</t>
+  </si>
+  <si>
+    <t>parabéns fiat acabou com o jogo! vou comprar um volkswagen #bbb21</t>
+  </si>
+  <si>
+    <t>muitos rumores surgiram nos últimos dias sobre o fim da produção do volkswagen gol. isso por causa de uma nota meio mal explicada sobre o futuro polo track. mas é cedo para cravar o fim do gol. ele ainda é o carro mais vendido da #volkswagen no brasil. 
+https://t.co/la5bsvpkda</t>
+  </si>
+  <si>
+    <t>eu adoro gols sejam eles volkswagen ou até do são paulo 👌</t>
+  </si>
+  <si>
+    <t>a volkswagen pretende lançar o i.d. buzz . trata-se de uma grande van elétrica de alta tecnologia que a montadora chama de microbus. à primeira vista é bem parecida com a lendária kombi, mas a semelhança é apenas em aspectos do seu design, segundo a vw
+ https://t.co/3vjsoi4lz3</t>
+  </si>
+  <si>
+    <t>volkswagen, volvo... qual a próxima? https://t.co/65gxmjps3n</t>
+  </si>
+  <si>
+    <t>pior ação de marketing nesse bbb foi a de hoje. tirar o jogo da discórdia logo no paredão mais interessante até.
+ainda bem que meu fusca é da volkswagen.</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum glsi 2.0 at 1993. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/fxbx3pefff https://t.co/4bushrduxf</t>
+  </si>
+  <si>
+    <t>@museubfr @senadorkajuru pq um contrato com a volkswagen afetaria o grupo globo?</t>
+  </si>
+  <si>
+    <t>piora da pandemia faz volkswagen suspender produção no brasil https://t.co/putdnc2bxj</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 1.8 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/xxmz5ynvip https://t.co/al6do88npa</t>
+  </si>
+  <si>
+    <t>você acha que a #volkswagen deve continuar produzinho o gol no brasil após 2022?
+@vwbrasil</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gl 2.0 álcool 2p 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/zy33vfr2kf https://t.co/okqymlsb7w</t>
+  </si>
+  <si>
+    <t>@freirejuliette vamos fazer uma vaquinha de um suv da volkswagen para juliette, que levou mais plaquinha, nessa prova bosta! expôs a juliette ao ridículo isso sim!</t>
+  </si>
+  <si>
+    <t>o pior jogo da discórdia, eu to abrindo divida no meu nome com 5 volkswagen, sucumba fiat, sucumba</t>
+  </si>
+  <si>
+    <t>sob nova direção, a @williamsracing preencheu um lugar que estava vago há quase dois anos 
+quem é fx, o novo diretor-técnico da equipe de grove? https://t.co/ygtqvoit3d #f1nogp</t>
+  </si>
+  <si>
+    <t>@fiatbr hoje eu prefiro a @volkswagen_ 
+#bbb21</t>
+  </si>
+  <si>
+    <t>volkswagen deveria patrocinar a isabelly kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum sport 2.0 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/g9lf5nyypa https://t.co/n9vl4xs6yp</t>
+  </si>
+  <si>
+    <t>dos ralis para a fórmula 1: williams anuncia ex-designer da volkswagen como novo diretor técnico https://t.co/rsfx54m2bh</t>
+  </si>
+  <si>
+    <t>juliette não ganhou um fiat pois quando sair com o seu 1m e meio vai comprar um volkswagen 
+#bbb21 #jogodadiscordia https://t.co/rtdwkl9rvu</t>
+  </si>
+  <si>
+    <t>@agoratricolor mais volante , o são paulo tem mais volantes que ford , volkswagen, fiat e gm juntos ! pqp</t>
+  </si>
+  <si>
+    <t>amel's 1993 volkswagen corrado - corrado registry https://t.co/lns8f1t0ij https://t.co/5o25r6lpyy</t>
+  </si>
+  <si>
+    <t>volvo e scania suspendem produção por falta de peças e agravamento da pandemia https://t.co/axqfvo0frw
+na semana passada, volkswagen anunciou a suspensão da produção por 12 dias em todas as fábricas no brasil #correio24h https://t.co/qm0wdcc0sc</t>
+  </si>
+  <si>
+    <t>- já foi equipe de fábrica da bmw
+- parceira da mercedes, com piloto da base deles
+- membros da equipe que vieram da volkswagen
+a williams curte uma marca alemã hein kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>vamos nos carros, ford preços de manutenção e peças caras, volkswagen um carro para durar pouco tanto como a fiat, importados de classe baixa, manutenção alta. gm ainda é o melhor custo benefício.
+@chevrolet</t>
+  </si>
+  <si>
+    <t>@sofsbg numa daquelas volkswagen</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum cl 1.8 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/coneeqbdhc https://t.co/9c2sx5ybe5</t>
+  </si>
+  <si>
+    <t>só vermelhinho q quer viver do dinheiro dos outros acha q a compra de uma plataforma dessas é algo ruim. é só olhar pras empresas automobilísticas: se vc tem um volkswagen, na verdade vc tem um porsche. se vc tem uma ferrari, na verdade vc tem um fiat</t>
+  </si>
+  <si>
+    <t>vou comprar um volkswagen up amanhã só por causa dessa noite de bbb</t>
+  </si>
+  <si>
+    <t>ford, volkswagen, scania, volvo…
+reserve logo sua charrete tupy (https://t.co/gdzz1xnyhs) modelo 21/22, completão.
+depois da volks, scania e volvo suspendem produção por pandemia e falta de peças https://t.co/6n9yx5syb8</t>
+  </si>
+  <si>
+    <t>fundação grupo volkswagen e todos pela educação se unem pela educação básica.
+clique no link e leia no coisas de agora.
+https://t.co/toflcop6mf https://t.co/vvt4jvuhsw</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum mi 2.0 1997. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/v54ap2lmw8 https://t.co/y7ohgdhenf</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 1.8 1992. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/ofl2srsdqg https://t.co/l40tdaa1o7</t>
+  </si>
+  <si>
+    <t>depois de volkswagen, scania e volvo também param produção no brasil; entenda → https://t.co/mam5wy7lcv</t>
+  </si>
+  <si>
+    <t>@janainadobrasil janaina mas isso já tem 1ano o marido de uma colega ele trabalha na volkswagen e testou positivo foi ao médico e simplesmente receitaram paracetamol. ajuda aí né imagina quantos não morreram por causa dessa irresponsabilidade não é ???????</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cd 1.8 at álcool 1986. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/angudkv3vb https://t.co/suyjvt9hsk</t>
+  </si>
+  <si>
+    <t>cabe à volkswagen, a honda, qlqr uma dar um carro 0 pra juliette q ficou com dor na coluna pra nada
+prova sem graça!
+#bbb21</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cd 1.8 álcool 1984. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/wc17ipkvju https://t.co/mm43ynhgjs</t>
+  </si>
+  <si>
+    <t>será se a volkswagen mete um cross fox na edição que eu for? pensativah</t>
+  </si>
+  <si>
+    <t>não é o caso porque eu não tenho dinheiro mas, se eu tivesse, só compraria ford, volkswagen, renault, peugeot ou qualquer outra porra
+vai tomar no cu @fiatbr</t>
+  </si>
+  <si>
+    <t>@_makavelijones por aqui, a gente fala mais de stalin do que nossa prórpia ditadura, de como empresas apoiaram ela. só fui saber que folha, volkswagen e outras apoiaram financeiramente quando adulto.</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana evidence 2.0 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/49hqqpqj8p https://t.co/ps19ogmgsu</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum cli 1.8 1996. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/yvptau0s64 https://t.co/gublqpyk0q</t>
+  </si>
+  <si>
+    <t>(a volkswagen se beneficiou loucamente do holocausto, tanto por parte de incentivo no gov. naz*sta quanto com o uso de trabalho forçado nos campos de trabalho)</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gl 2.0 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/cruqpvidtq https://t.co/bytedprgqw</t>
+  </si>
+  <si>
+    <t>informações do mundo automotivo:
+volkswagen não terá mais produção de carros a combustão, a partir de hoje todos os veículos da marca serão elétricos!</t>
+  </si>
+  <si>
+    <t>@javnbd mas será que está se vendendo tanto carro,a volkswagen anunciou que vai paralisar as 4 fábricas no brasil.</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum glsi 2.0 1994. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/ke02qifcku https://t.co/ez45lzwlrt</t>
+  </si>
+  <si>
+    <t>volkswagen anuncia que não desenvolverá novos motores a combustão https://t.co/ojd9qee4yg https://t.co/tfowhaiax9</t>
+  </si>
+  <si>
+    <t>volkswagen também já havia anunciado suspensão de 12 dias em sua produção em quatro fábricas no brasil.
+#meiahora 
+https://t.co/q1xvdxrsqv</t>
+  </si>
+  <si>
+    <t>#volkswagen id.4, um suv do porte do taos, será o primeiro carro totalmente elétrico da marca no brasil.
+https://t.co/ge4sm4yadx</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 1.8 1988. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/v3isi2l3g6 https://t.co/irmkpuzyps</t>
+  </si>
+  <si>
+    <t>françois-xavier demaison é o novo diretor técnico da williams  #f1 https://t.co/wzlehwdaq7</t>
+  </si>
+  <si>
+    <t>@oproprioribeiro @lucas_marcomini @juli0_p @alme1da__ @zograttis já que a agência de notícias de londres é inválida pra você, e somente você, pega algum documento do governo alemão e prova que inglês é a segunda língua, por favor eu quero muito ouvir o seu argumento de youtubers e a volkswagen</t>
+  </si>
+  <si>
+    <t>williams tá pegando a galera da volkswagen pra comandar o projeto. 
+então teremos: 
+1- motor ea888 2.0 tsi de golf stg3 com downpipe, mapa, filtro e turbina is38
+ou
+2- motor 2.0 ap com turbina garrett roletada com 3,5kg de pressão com tudo forjado https://t.co/sk63mddr3k</t>
+  </si>
+  <si>
+    <t>@ig_rios1 @lucas_marcomini @juli0_p @alme1da__ @zograttis quem me questionou que lá não é foi voce
+eu disse que foi uma experiencia pessoal minha lá
+voce tem que mostrar porque vc falou que não é!!!
+cade falando que não tem?
+traz algo alemão, vc vem provar com argumento de uma empresa de outro pais?
+a volkswagen fica na alemanha</t>
+  </si>
+  <si>
+    <t>depois de a volkswagen paralisar a produção de veículos no abc paulista, scania e volvo suspendem produção no país por pandemia e falta de peças. 
+https://t.co/htglcmchdk</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gls 2.0 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/31kkeskijy https://t.co/no8knlhwqw</t>
+  </si>
+  <si>
+    <t>o volkswagen gol gt voltou? exclusivo! #voltagolgt [vídeo] https://t.co/rlftyyoexf gol, exclusivo, gol aro 17, vídeo, volkswagen, voltagolgt, voltou #clubedogol #vwgol #clubedogolbrasil</t>
+  </si>
+  <si>
+    <t>volkswagen f1 racing team vamos, eu acredito https://t.co/bt1uqu1g40</t>
+  </si>
+  <si>
+    <t>a ford fechou, a mercedes fechou, a gm fechou, a sony fechou, a volkswagen fechou e agora a volvo anuncia fechamento das fábrica de caminhões. 14 milhões de desempregados, 200 mil empresas fechadas desde 2016 e 300 mil mortes. mas há quem ache que bolsonaro é o "mito".</t>
+  </si>
+  <si>
+    <t>com o avanço da pandemia, as montadoras do grande abc se mobilizam para reduzir a propagação do novo coronavírus. depois da volkswagen, que vai parar por 12 dias corridos, a scania anunciou uma parada programada de produção entre 26 de março e 5 de abril.
+https://t.co/cgr33jqf5a</t>
+  </si>
+  <si>
+    <t>@portaltracklist @ford @volkswagen_ podem fazer propaganda que nem a pepsi no dia da karol lider</t>
+  </si>
+  <si>
+    <t>bem feito fiat! aqui é volkswagen</t>
+  </si>
+  <si>
+    <t>@vitorsaraivas n da p eu ter um golzinho pq a volkswagen o hitler q criou tlg kkkkk n da mano, o unico jeito entao é a bomba atomica e ai começa do zero</t>
+  </si>
+  <si>
+    <t>2018 volkswagen vento
+https://t.co/rjf0i6nznx
+#autopartes #seminuevo #seminuevosmx https://t.co/uyro5loacs</t>
+  </si>
+  <si>
+    <t>volkswagen saveiro conheça toda a história – blogauto https://t.co/vckujg4yxj saveiro, blogauto, conheça, história, saveiro surf, toda, volkswagen #clubedogol #vwgol #clubedogolbrasil</t>
+  </si>
+  <si>
+    <t>entrevista que fiz com o presidente da volkswagen no artigo de hoje do estadão @estadao https://t.co/iawab4lrgw</t>
+  </si>
+  <si>
+    <t>decisão surpreendente da williams em contratar fx demaison, que trabalhou com o ceo capito na volkswagen, como diretor técnico.
+é alguém muito experiente, mas não na #f1. é interessante porque ele pode trazer novas ideias para o time. https://t.co/g0b8ityzys</t>
+  </si>
+  <si>
+    <t>@juliagzz_ club da volkswagen,aqui em são bernardo.</t>
+  </si>
+  <si>
+    <t>quero ter um volkswagen up</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cl 2.0 álcool 2p 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/lrru2rzrzd https://t.co/vx2ezk0exx</t>
+  </si>
+  <si>
+    <t>@bandeiramarela https://t.co/oe7cottark 
+motores volkswagen para breve??</t>
+  </si>
+  <si>
+    <t>o nivus vai custar o equivalente a r$ 130.000 na europa. 
+https://t.co/o9tqxyybyb</t>
+  </si>
+  <si>
+    <t>volkswagen, dá um carro pra juliette.  #bbb21</t>
+  </si>
+  <si>
+    <t>françois fez um ótimo trabalho na volkswagen, especialmente no projeto do wrc. pode não ter experiência na f1, mas vai se adaptar rapidamente pela competência que tem https://t.co/nzb8jvrdwy</t>
+  </si>
+  <si>
+    <t>o hoje parlamentar @senadorkajuru confronta o prefeito eduardo paes sobre o abrupto fechamento do engenhão, em 2013.
+à época, dizia-se que o botafogo tinha um acordo fechado com a volkswagen para o naming rights do estádio, fato que contrariava os planos do grupo globo... https://t.co/xugfmv60br</t>
+  </si>
+  <si>
+    <t>volkswagen é uma grande surpresa do mercado
+a empresa alemã volkswagen manipulou a emissão de carbono nos seus veículos. o escândalo custou uma mancha na sua reputação e muitos milhões de multa. mas agora a volkswagen renasce e parece ser a grande apost… https://t.co/hxp32g40s3</t>
+  </si>
+  <si>
+    <t>parabéns fiat amanhã vou comprar um volkswagen só de raiva</t>
+  </si>
+  <si>
+    <t>é muito lindo ver o @jairbolsonaro brigando para as pessoas trabalharem né?
+ford, audi, sony, scania, volvo, volkswagen...
+todas essas empresas pararam, o importante é o vendedor de meia que fatura 2k por mes https://t.co/v5deksx95n</t>
+  </si>
+  <si>
+    <t>volvo e scania, assim como a volkswagen, decidem parar parte da operação.
+https://t.co/w0lh0meyb9</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana sport 2.0 álcool 2p 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/nyr0xg8mse https://t.co/wrzrjlas33</t>
+  </si>
+  <si>
+    <t>volkswagen anuncia que não vai mais desenvolver novos motores a combustão https://t.co/gjp5wgrjv6.</t>
+  </si>
+  <si>
+    <t>@thierryh__ não gosto dos carros da fiat kkk eu iria vender e comprar um da volkswagen ou da chevrolet</t>
+  </si>
+  <si>
+    <t>já pensou se juliette sai do programa e compra um volkswagen????? #bbb21 https://t.co/f3blqklk0a</t>
+  </si>
+  <si>
+    <t>eu ia comprar um carro da fiat amanhã mas como a juliette não ganhou essa prova vou comprar um volkswagen #bbb21</t>
+  </si>
+  <si>
+    <t>ford, volkswagen... agora é a vez da volvo. https://t.co/prjlzfpwjf</t>
+  </si>
+  <si>
+    <t>novo volkswagen polo track deve acabar com gol, fox e up no brasil https://t.co/qvputzai6h</t>
+  </si>
+  <si>
+    <t>volkswagen o destaque pela negativa na bolsa alemã; lidera as perdas do índice dax 30. https://t.co/8yhqy7f0ef</t>
+  </si>
+  <si>
+    <t>"a suspensão, segundo a montadora, será até o dia 4 de abril. nas fábricas, apenas atividades essenciais serão mantidas."  https://t.co/rbky53irsz</t>
+  </si>
+  <si>
+    <t>xl1 é o carro da volkswagen que faz 111,1 km/l de combustível; conheça suas configurações https://t.co/xkl15bcmbz via @engenhariae</t>
+  </si>
+  <si>
+    <t>@jairbolsonaro   só uma gripezinha
+https://t.co/z0vit9gmxn</t>
+  </si>
+  <si>
+    <t>volvo corta produção no brasil por falta de componentes https://t.co/rj6rgyqvab #anfavea #brasil #coronavírus #empresas #gm #honda  #setorautomotivo #volkswagen #volvo</t>
+  </si>
+  <si>
+    <t>@rodiz73890374 nd po , to aq com meu volkswagen golf 🤙🥶</t>
+  </si>
+  <si>
+    <t>olhando um volkswagen pra financiar aqui</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum mi 1.8 1997. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/p9jb3zj23a https://t.co/aczu76blwx</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gls 1.8 at 1988. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/wah7030uen https://t.co/slrb5wgrr4</t>
+  </si>
+  <si>
+    <t>a partir de hoje só volkswagen</t>
+  </si>
+  <si>
+    <t>@rafinhabastos besteira...
+a volkswagen, chevrolet, ford, honda, hyundai, peugeot, torcida do corinthians e flamengo odeiam você e você nem reclama.
+kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@eazy_ibies either a volkswagen or a volvo</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 2.0 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/uganhx7jwp https://t.co/dwa9bie3gq</t>
+  </si>
+  <si>
+    <t>se fosse volkswagen não seria essa palhaçada ahtri</t>
+  </si>
+  <si>
+    <t>eu aprendi pronunciar  volkswagen em alemão fico várias vezes pronunciando me interesso muito por francês, mas alemão tbm é uma língua bonita</t>
+  </si>
+  <si>
+    <t>a história do volkswagen logus. alguém lembra dele?
+https://t.co/89qx1vyy3x</t>
+  </si>
+  <si>
+    <t>é volkswagen, abestalhada. e eu não disse que vc n era melhor, porque era sim.</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gli 2.0 1994. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/akie0idwxf https://t.co/jbqy7hrrzc</t>
+  </si>
+  <si>
+    <t>por isso a volkswagen e a melhor montadora do país, ctz que eles pensariam algo melhor</t>
+  </si>
+  <si>
+    <t>@ttdoigao @freirejuliette ela vai e compra um da volkswagen com o 1,5m dela hahaha</t>
+  </si>
+  <si>
+    <t>@ig_rios1 @lucas_marcomini @juli0_p @alme1da__ @zograttis depende, ai acredito que é uma opinião sua
+na volkswagen lá a língua padrão deles o inglês
+tem youtubers que dizem que é segunda lingua
+vc tem alguma informação oficial alemã para dizer que não é a segunda lingua?</t>
+  </si>
+  <si>
+    <t>espero que juliette e joão tenham dinheiro pra comprar um carro da volkswagen também #bbb21</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 2.0 at 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/dpov3ca1sb https://t.co/mz9kc5znlb</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 2.0 1992. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/jetbxnickt https://t.co/20irjcjudj</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum glsi 2.0 1996. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/fdglgptebx https://t.co/52jciz0sd3</t>
+  </si>
+  <si>
+    <t>🌎 radar global: volkswagen, instagram e nestlé
+unidade elétrica da volkswagen pode valer us$ 230 bi, instagram para crianças e nestlé-tech.
+https://t.co/fnzhwqjqz4</t>
+  </si>
+  <si>
+    <t>@jucerasoli é a volkswagen abrindo seu caminho na f1.</t>
+  </si>
+  <si>
+    <t>vem aí: volkswagen williams f1 team
+🙏🙏🙏 https://t.co/0f5fiduoer</t>
+  </si>
+  <si>
+    <t>muito chato esse jogo a fiat estragou tudo ainda bem que phoebinha é volkswagen se não teria que vender meu carro depois de uma mixaria dessas</t>
+  </si>
+  <si>
+    <t>@zamenza vender o fiat que vai ganhar quando levar o programa e comprar um volkswagen hahahahahhahahahahahahahahahaha</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana executivo 2.0 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/6nxkciyxw4 https://t.co/6ztjjyxd0w</t>
+  </si>
+  <si>
+    <t>tenho a impressão que se a vihtube ganhasse o carro, era capaz de agradecer à volkswagen...</t>
+  </si>
+  <si>
+    <t>@zamenza pensou se a volkswagen resolve dar um carro pra ela? ou a @chevroletbrasil? esse pessoal de marketing é lento...</t>
+  </si>
+  <si>
+    <t>@legadaodamassa vou comprar um volkswagen up! amanhã só por causa dessa noite de bbb</t>
+  </si>
+  <si>
+    <t>será que o "mercado" na alemanha nazista da década de 40 soltou alguma notinha para o führer? será que os investidores da volkswagen, da bayer, da siemens ou da topf and söhne (que fabricava fornos crematórios para os campos de concentração) soltaram alguma notinha de repúdio?</t>
+  </si>
+  <si>
+    <t>alguém avisa para o animal de brasília que a economia não funciona sem vacinas no meio de uma pandemia. 
+depois da volkswagen, volvo suspende produção de caminhões no brasil por conta da praga da covid-19.
+https://t.co/k2ulbuf4if</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gl 2.0 1992. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/jha91aftqc https://t.co/bphmobdlfy</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gl 2.0 álcool 2p 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/nnkmd8kbez https://t.co/k3rgckoxz1</t>
+  </si>
+  <si>
+    <t>nem pra ser um volkswagen</t>
+  </si>
+  <si>
+    <t>https://t.co/w435mctxzu
+polo track, um carro para aposentar o volkswagen gol?
+#vw #volkswagen #polo #track #overboostbr @vwbrasil</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gli 2.0 1995. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/0sa4d9bmyy https://t.co/1czbr9scwf</t>
+  </si>
+  <si>
+    <t>fiat estragou o nosso jogo da discórdia, né? e vamos de volkswagen.</t>
+  </si>
+  <si>
+    <t>@bbcbrasil todas as empresas estrangeiras, inclusive a volkswagen instaladas na china tem 51% das ações  nas mãos do governo chinês, portanto a china é comunista. duvidas?</t>
+  </si>
+  <si>
+    <t>@_porquemmetomas vamos comprar na volkswagen</t>
+  </si>
+  <si>
+    <t>@chicobarney isso não pode ficar assim, precisamos subir hashtag da volkswagen</t>
+  </si>
+  <si>
+    <t>#f1: volkswagen cada vez mais implantada nos grandes prémios https://t.co/bohsvw1bd2
+#f1eleven #f12021 #f1isback https://t.co/xh4er29wsa</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum cl 1.8 1989. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/dnvwk4meed https://t.co/zdddtx8r46</t>
+  </si>
+  <si>
+    <t>marcus vinicius gasques desmembra o fechamento temporário da volkswagen no brasil pela pandemia. https://t.co/bbvb4tlll9 
+#noarnacbn #auto</t>
+  </si>
+  <si>
+    <t>novo volkswagen polo e virtus 2022 - rumores e novidades - https://t.co/ds9i3jt7sm</t>
+  </si>
+  <si>
+    <t>parabéns @fiat flopou na prova! gastou dinheiro atoa! 
+vamos de volkswagen</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gl 2.0 1993. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/kbqyzjfd9x https://t.co/p14gxeeyee</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cd 1.8 álcool 1985. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/5jof6knv1k https://t.co/iyo2gauktx</t>
+  </si>
+  <si>
+    <t>ainda bem que nunca gostei de carro fiat, sempre fui mais volkswagen</t>
+  </si>
+  <si>
+    <t>por conta do agravamento da pandemia, volkswagen irá interromper todas as atividades nas fábricas de são paulo e paraná por 12 dias
+https://t.co/qa6a2uuq48</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gl 2.0 2p 1992. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/asa5ud2a38 https://t.co/icaeulza2j</t>
+  </si>
+  <si>
+    <t>qual o melhor aplicativo de coding/vcds. carista ou obdeleven? quais as ... https://t.co/ib3jcjq4q9 via @youtube #obdeleven #carista #obd #coding #vcds #vw #volkswagen #audi #vagcom #rosstech #longcoding #aplicativodecoding #polo #jetta #virtus #nivus #tcross #amarok #passat #up</t>
+  </si>
+  <si>
+    <t>depois de volkswagen, scania e volvo também param produção no brasil https://t.co/3osdnojzpt</t>
+  </si>
+  <si>
+    <t>volkswagen suspende produção no brasil por causa do avanço da pandemia http://34.94.53.220/2021/03/19/volkswagen-suspende-producao-no-brasil-por-causa-do-avanco-da-pandemia-de-covid-19/</t>
+  </si>
+  <si>
+    <t>hmmmmm galerinha da volkswagen eim ela que ameaça voltar pra f1 todo ano será q num rola uma parceria com a williams não 👀 https://t.co/9jwwclxbld</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 2.0 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/nouvhbu8zp https://t.co/1ztajmsm8s</t>
+  </si>
+  <si>
+    <t>williams pesca en la extinta volkswagen motorsport y ficha como líder técnico a fx demaison #wrc #f1 https://t.co/lalbkzdfy6 https://t.co/8hdpwfrtm3</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum gl 2.0 1991. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/ykt9lvrm7i https://t.co/z8vhu2qg8m</t>
+  </si>
+  <si>
+    <t>@fiat obrigado por terem estragado o jogo da discórdia. 
+volkswagen &amp;gt;&amp;gt;&amp;gt;&amp;gt;&amp;gt; fiat 
+#jogodadiscordia</t>
+  </si>
+  <si>
+    <t>@olauroebonito sabe quem tbm não gostava de arroz temperado? adolf hitler, que além de todos os crimes, inventou a volkswagen, que produz carros.</t>
+  </si>
+  <si>
+    <t>@hedilbe49136857 kkkkkkkkkkkkkkkk 
+volkswagen já não fabrica variant no brasil ha mais de 40 anos.
+reclama da china que produziu e espalhou o vírus.</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum exclusiv 2.0 1996. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/eyj7svxuer https://t.co/47sixdfxua</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gls 2.0 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/oahlf8hsub https://t.co/c349zlut6g</t>
+  </si>
+  <si>
+    <t>olha o bart na área!!!😎
+.
+.
+.
+.
+.
+#vocho #vwbug #vosvos #vwbeetle #vwfusca #fusca #beetlelove #volkswagen #aircooled #amarelojava #fusca1977 #fusca77 #campinas #safariwindows em campinas, sao paulo https://t.co/odoij0ah3o</t>
+  </si>
+  <si>
+    <t>a big aplle que vale 3 triliões$ condenada a multinhas de 2 milhões, lol que gozo. cócegas! ate parece a  volkswagen com o dieselgate eles bilionários de centenas de biliões a pagar 1 bilião de multazinha. nao tarda faram bem pior. 
+https://t.co/xjlu6ihro1</t>
+  </si>
+  <si>
+    <t>o prior ia falar: é concorrente do up. eu prefiro ele que é da volkswagen</t>
+  </si>
+  <si>
+    <t>@vi_freedom @oediel3 @bom_sussego @atentopapagaio @desmentindobozo @secomvc até a volkswagen sabe q p salvar economia precisa salvar vidas. olha o tamanho da crise q nos enfiamos pelo colapso sanitário, o mundo nos aponta como párias pq n conseguimos controlar a covid e vc qr q abra +? q morra +?
+se o imposto do cidadão n serve p ele comer, serve pra q? https://t.co/2ycvqputod</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana executivo 2.0 at 1990. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/hjb27oibhm https://t.co/4dmdj7cj5g</t>
+  </si>
+  <si>
+    <t>#volkswagen suspende produção no brasil por causa do covid-19
+confira
+https://t.co/l0fysheomf</t>
+  </si>
+  <si>
+    <t>@parox040 a volkswagen foi a marola.
+vem tsunami!</t>
+  </si>
+  <si>
+    <t>nova direção! 🏁🔵⚪️
+williams anuncia ex-volkswagen françois-xavier demaison como novo diretor-técnico #lancenet 
+https://t.co/a9x3l08aja https://t.co/zotmhtbp6j</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cd 1.8 at álcool 1985. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/0it3qapb1c https://t.co/cclvfj70yq</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana gl 1.8 1987. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/nnm7aa8flo https://t.co/t73pzzvwqj</t>
+  </si>
+  <si>
+    <t>depois desse jogo da discórdia eu só comprarei volkswagen na minha vida</t>
+  </si>
+  <si>
+    <t>@zamenza embaixadora da volkswagen quando sair.</t>
+  </si>
+  <si>
+    <t>@fernandomolica ai fernando comunista, vacilão.
+se ferrou ontem com o skaff né.
+vai perguntar pra volkswagen por que ela deu férias p os empregados seu otário.</t>
+  </si>
+  <si>
+    <t>@museubfr @senadorkajuru nunca acreditei nessa historia de volkswagen no engenhão. o dentista iludiu a todos e usou o botafogo para enriquecimento.</t>
+  </si>
+  <si>
+    <t>só de raiva vou fazer mídia espontânea pra chevrolet e pra volkswagen.</t>
+  </si>
+  <si>
+    <t>volkswagen pisa na fiat</t>
+  </si>
+  <si>
+    <t>@anarcosaurus aqui em uberlândia são os fusquero. usam o brasão da força aérea nazi junto com o primeiro logo da volkswagen.
+um bando de tiozão sem noção, tirando 3 caras que sabem exatamente quais são os símbolos.</t>
+  </si>
+  <si>
+    <t>na francauto é assim, você consegue reservar seu novo volkswagen sem sair de casa.💙 não deixe seu sonho para depois. estamos atendendo on-line, cham no direct ou no whatsapp 16 3711-5000 ! https://t.co/wrkopfs3ai</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum glsi 2.0 1995. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/kmvv9mwsjx https://t.co/odraephbss</t>
+  </si>
+  <si>
+    <t>williams pesca en la extinta volkswagen motorsport y ficha como líder técnico a fx demaison https://t.co/fa6eiwg7de</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum family 2.0 1997. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/5cymwnbgt5 https://t.co/hdytgy8how</t>
+  </si>
+  <si>
+    <t>ford se foi, volkswagen tá vazando e a fiat tá distribuindo carro no bbb</t>
+  </si>
+  <si>
+    <t>@fiatbr por que isso que prefiro a ford ou volkswagen</t>
+  </si>
+  <si>
+    <t>bora levantar a #ford 
+#chevrolet 
+#volkswagen
+#honda
+#toyota</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cg 1.8 álcool 1985. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/7of1vdpxue https://t.co/4yxial6b4o</t>
+  </si>
+  <si>
+    <t>🚛conheça parte da história da volkswagen no brasil, entendendo sua chegada, o lançamento dos primeiros caminhões vw em eventos públicos e muito mais!
+clique aqui para conferir! 🚛🚛
+https://t.co/5p9nppzc8y</t>
+  </si>
+  <si>
+    <t>volkswagen já tinha parado. 
+volvo e scania suspendem produção por falta de peças e agravamento da pandemia
+https://t.co/1ms3vwyyym</t>
+  </si>
+  <si>
+    <t>projeção antecipa visual do volkswagen polo track 2022 https://t.co/dfvhd8lkud</t>
+  </si>
+  <si>
+    <t>que vontade de lançar uma van da volkswagen, que lindo pqp</t>
+  </si>
+  <si>
+    <t>volkswagen up 1.0 2015
+muito novo!!!
+chama no direct em taquara, rio de janeiro https://t.co/okb8lnndsd</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum evidence 2.0 1997. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/tzhce145nx https://t.co/0stjh2xmvz</t>
+  </si>
+  <si>
+    <t>@folha começou na volkswagen!
+vem tsunami!
+o colapso da saúde, o colapso da economia!
+o colapso do desgoverno bolsonaro, genocida estúpido!
+sem vacinas 💉, sem economia!!!</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen santana cs 1.8 álcool 1986. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/j1vodpjtbc https://t.co/qgvj4qgziz</t>
+  </si>
+  <si>
+    <t>volkswagen polo sportline 1.6 flex 2012❤😅👍🏻
+⠀
+informações do veículo pelo link: https://t.co/pvtxjgcgn1
+#sólidusveículos #volkswagen #flex #multimarcas #volkswagen #seminovos #veículosseminovos #polo #polosportine #polobr #sportline https://t.co/53igmkmdp9</t>
+  </si>
+  <si>
+    <t>já pensou se juliette sai do programa e compra um volkswagen????? #bbb21 https://t.co/fxlhxda19c</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum cli 1.8 1995. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/ekwg8pkvxt https://t.co/xxjkhpgke6</t>
+  </si>
+  <si>
+    <t>que bosta esse jogo da discórdia eu vou comprar carro da volkswagen</t>
+  </si>
+  <si>
+    <t>@oproprioribeiro @lucas_marcomini @juli0_p @alme1da__ @zograttis a volkswagen não é um país e sim uma empresa assim como em diversas empresas brasileiras, tem um youtube alemão que diz que não é, mas youtubers em geral não são boa fontes de informações, vide youtubers terra planistas</t>
+  </si>
+  <si>
+    <t>parabéns ao rafael, aqui de sapiranga, que conquistou o seu volkswagen gol mi 1.0 2012. 👏🚗🎁🎉
+#realmotosecarros #carros #motos #clientedecarronovo #alegriadocarronovo #carronovo #entrega #sejavocesejareal https://t.co/qn4lpqg4pm</t>
+  </si>
+  <si>
+    <t>#liuyifei para saic volkswagen.
+mais fotos: https://t.co/js6fisqwmr
+#刘亦菲 #crystalliu #汴京梦华图 #theloveofhypnosis #returnofthecondorheroes #chinesepaladin #onceuponatime #mulan #cdrama #dorama https://t.co/11xfvsy3jp</t>
+  </si>
+  <si>
+    <t>a marca alemã levou recentemente o novo volkswagen golf r e o novo volkswagen i.d4 ao centro de testes de michigan, nos estados unidos, para os modelos serem testados na neve pelo campeão do ralicross tanner foust. https://t.co/xajkejwr6q</t>
+  </si>
+  <si>
+    <t>conheça os dados técnicos do volkswagen quantum evidence 2.0 1996. consumo na cidade e estrada, potência, velocidade, aceleração, dimensões, capacidades e mais https://t.co/f67fkiish7 https://t.co/zzr29jomfr</t>
   </si>
 </sst>
 </file>
@@ -2217,19 +3096,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:N431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="255.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +3116,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2245,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2253,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2261,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2277,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +3164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2293,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2301,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2317,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2325,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2341,7 +3220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2349,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2365,7 +3244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2381,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2389,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2397,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2405,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2413,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2421,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2429,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2437,7 +3316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2453,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2461,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2469,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2477,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2485,12 +3364,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2498,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2506,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2514,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2522,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2530,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2538,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2546,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2562,7 +3441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2570,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2578,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2594,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2602,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2610,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -2618,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2626,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2634,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -2642,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -2650,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -2658,7 +3537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2666,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2674,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2682,7 +3561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2690,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2698,7 +3577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2706,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2714,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2722,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2730,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2738,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2746,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -2754,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2762,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +3649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2778,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2786,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2794,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2802,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2810,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2818,7 +3697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2826,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2834,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2842,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2850,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2858,7 +3737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2866,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2874,7 +3753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2882,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2890,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2898,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2906,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2914,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2922,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2930,7 +3809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2938,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2946,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2954,7 +3833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2962,7 +3841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2970,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2978,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2986,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2994,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3002,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3010,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3018,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3026,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3034,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3042,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3050,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3058,7 +3937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3066,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3074,7 +3953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3082,7 +3961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3091,7 +3970,7 @@
       </c>
       <c r="N108" s="3"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3099,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3107,7 +3986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3115,7 +3994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3123,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3131,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3139,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3147,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3155,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3163,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3171,7 +4050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3179,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3187,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3195,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3203,7 +4082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3211,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3219,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3227,7 +4106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3235,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3243,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3251,7 +4130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3259,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3267,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3275,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3283,7 +4162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3291,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3299,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3307,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3315,7 +4194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3323,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3331,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3339,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3347,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3355,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3363,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3371,7 +4250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3379,7 +4258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3387,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3395,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3403,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3411,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3419,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3427,7 +4306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3435,7 +4314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -3443,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3451,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -3459,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -3467,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -3475,7 +4354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -3483,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -3491,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -3499,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -3507,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -3515,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -3523,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -3531,7 +4410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3539,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -3547,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3555,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -3563,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3571,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3579,7 +4458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -3587,7 +4466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -3595,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3603,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3611,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3619,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3627,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3635,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3643,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -3651,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -3659,7 +4538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -3667,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -3675,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -3683,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -3691,7 +4570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -3699,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -3707,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -3715,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -3723,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -3731,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -3739,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -3747,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -3755,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -3763,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -3771,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -3779,7 +4658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -3787,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -3795,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -3803,7 +4682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -3811,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -3819,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -3827,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -3835,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -3843,7 +4722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -3851,7 +4730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -3859,7 +4738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -3867,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -3875,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -3883,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -3891,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -3899,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -3907,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -3915,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -3923,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -3931,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -3939,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -3947,7 +4826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -3955,7 +4834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -3963,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -3971,7 +4850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -3979,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -3987,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -3995,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4003,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4011,7 +4890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4019,7 +4898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4027,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4035,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4043,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4051,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4059,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4067,7 +4946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4075,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4083,7 +4962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4091,7 +4970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4099,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4107,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4115,7 +4994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4123,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4131,7 +5010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4139,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4147,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4155,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4163,7 +5042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4171,7 +5050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4179,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4187,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4195,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4203,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4211,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4219,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4227,7 +5106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4235,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4243,7 +5122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4251,7 +5130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4259,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4267,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4275,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4283,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4291,7 +5170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4299,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4307,7 +5186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4315,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4323,7 +5202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4331,7 +5210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4339,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4347,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4355,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4363,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4371,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4379,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4387,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4395,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4403,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4411,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4419,7 +5298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4427,7 +5306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4435,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -4443,7 +5322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4451,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -4459,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -4467,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -4475,7 +5354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -4483,7 +5362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -4491,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -4499,7 +5378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -4507,7 +5386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -4515,7 +5394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -4523,7 +5402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -4531,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -4539,7 +5418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -4547,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -4555,7 +5434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -4563,7 +5442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -4571,7 +5450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -4579,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -4587,7 +5466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -4595,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -4603,7 +5482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -4611,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -4619,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -4627,37 +5506,874 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>299</v>
       </c>
       <c r="B301">
         <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B302" s="5"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B305" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="B306" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B308" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="B309" s="5"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B310" s="5"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B311" s="5"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B312" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B313" s="5"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="B314" s="5"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B317" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B319" s="5"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B321" s="5"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B323" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B325" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B326" s="5"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="B327" s="5"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B328" s="5"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B329" s="5"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B332" s="5"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B333" s="5"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B334" s="5"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B337" s="5"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B338" s="5"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B339" s="5"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B340" s="5"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B341" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B342" s="5"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="B343" s="5"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B344" s="5"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B345" s="5"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B346" s="5"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B348" s="5"/>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B350" s="5"/>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="B351" s="5"/>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B354" s="5"/>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B355" s="5"/>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B356" s="5"/>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B357" s="5"/>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B358" s="5"/>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B359" s="5"/>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="B361" s="5"/>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B365" s="5"/>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B366" s="5"/>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B367" s="5"/>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B368" s="5"/>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B369" s="5"/>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B370" s="5"/>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B371" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B372" s="5"/>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B373" s="5"/>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B374" s="5"/>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B375" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="B376" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B379" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="B380" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B383" s="5"/>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B384" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B385" s="5"/>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B386" s="5"/>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B387" s="5"/>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B388" s="5"/>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B389" s="5"/>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B390" s="5"/>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="B391" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="B392" s="5"/>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="B393" s="5"/>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B394" s="5"/>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="B395" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B396" s="5"/>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B397" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="B399" s="5"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B400" s="5"/>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B401" s="5"/>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B402" s="5"/>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B403" s="5"/>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B404" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B405" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B406" s="5"/>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B407" s="5"/>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B408" s="5"/>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B409" s="5"/>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B410" s="5"/>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B411" s="5"/>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B412" s="5"/>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B413" s="5"/>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B414" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B415" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B416" s="5"/>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="B417" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B418" s="5"/>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B419" s="5"/>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B420" s="5"/>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B421" s="5"/>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B422" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B423" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="B424" s="5"/>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="B425" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B426" s="5"/>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="B427" s="5"/>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="B428" s="5"/>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B429" s="5"/>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B430" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B431" s="5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A66" r:id="rId1" location="autoviaçãobragança%20#bragança_x000a_#grupovida%20#viaçãodanúbioazul%20#danúbioazul%20#artesp%20https://t.co/8nsywmczpo" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A362" r:id="rId2" location="vw%20#volkswagen%20#polo%20#track%20#overboostbr%20@vwbrasil" xr:uid="{786283F2-D7A0-5648-9A4A-FC367F9A8A96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+    <sheetView topLeftCell="A169" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="255.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -4665,7 +6381,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -4673,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -4681,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -4689,7 +6405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -4697,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -4705,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -4713,7 +6429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -4721,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -4729,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -4737,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -4745,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -4753,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -4761,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -4769,7 +6485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -4777,7 +6493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -4785,7 +6501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -4793,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -4801,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -4809,7 +6525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -4817,7 +6533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -4825,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -4833,7 +6549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -4841,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -4849,7 +6565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -4857,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -4865,7 +6581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>326</v>
       </c>
@@ -4873,7 +6589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -4881,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -4889,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -4897,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -4905,7 +6621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -4913,7 +6629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -4921,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -4929,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -4937,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -4945,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -4953,7 +6669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -4961,7 +6677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -4969,7 +6685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -4977,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -4985,7 +6701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>341</v>
       </c>
@@ -4993,7 +6709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -5001,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -5009,7 +6725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -5017,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -5025,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -5033,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -5041,7 +6757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -5049,7 +6765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -5057,7 +6773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -5065,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -5073,7 +6789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -5081,7 +6797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -5089,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -5097,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -5105,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -5113,7 +6829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -5121,7 +6837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -5129,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -5137,7 +6853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -5145,7 +6861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -5153,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -5161,7 +6877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -5169,7 +6885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -5177,7 +6893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -5185,7 +6901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -5193,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -5201,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -5209,7 +6925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -5217,7 +6933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -5225,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -5233,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -5241,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -5249,7 +6965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -5257,7 +6973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -5265,7 +6981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -5273,7 +6989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -5281,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -5289,7 +7005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -5297,7 +7013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -5305,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -5313,7 +7029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -5321,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -5329,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -5337,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -5345,7 +7061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -5353,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -5361,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -5369,7 +7085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -5377,7 +7093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -5385,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>391</v>
       </c>
@@ -5393,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -5401,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -5409,7 +7125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -5417,7 +7133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -5425,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -5433,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -5441,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -5449,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -5457,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -5465,7 +7181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -5473,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -5481,7 +7197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -5489,7 +7205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -5497,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -5505,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -5513,7 +7229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -5521,7 +7237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -5529,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -5537,7 +7253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -5545,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -5553,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -5561,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -5569,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -5577,7 +7293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -5585,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -5593,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -5601,7 +7317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>418</v>
       </c>
@@ -5609,7 +7325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -5617,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -5625,7 +7341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>421</v>
       </c>
@@ -5633,7 +7349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -5641,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -5649,7 +7365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -5657,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -5665,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -5673,7 +7389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -5681,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -5689,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -5697,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -5705,7 +7421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -5713,7 +7429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -5721,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -5729,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -5737,7 +7453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -5745,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -5753,7 +7469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -5761,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -5769,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -5777,7 +7493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -5785,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -5793,7 +7509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -5801,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -5809,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -5817,7 +7533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -5825,7 +7541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -5833,7 +7549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -5841,7 +7557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -5849,7 +7565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -5857,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -5865,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -5873,7 +7589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -5881,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -5889,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -5897,7 +7613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -5905,7 +7621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -5913,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -5921,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -5929,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -5937,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>460</v>
       </c>
@@ -5945,7 +7661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -5953,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -5961,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -5969,7 +7685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -5977,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -5985,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>466</v>
       </c>
@@ -5993,7 +7709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -6001,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -6009,7 +7725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>469</v>
       </c>
@@ -6017,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -6025,7 +7741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>471</v>
       </c>
@@ -6033,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>472</v>
       </c>
@@ -6041,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>473</v>
       </c>
@@ -6049,7 +7765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>474</v>
       </c>
@@ -6057,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>475</v>
       </c>
@@ -6065,7 +7781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>476</v>
       </c>
@@ -6073,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>477</v>
       </c>
@@ -6081,7 +7797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>478</v>
       </c>
@@ -6089,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>479</v>
       </c>
@@ -6097,7 +7813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>480</v>
       </c>
@@ -6105,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>481</v>
       </c>
@@ -6113,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>482</v>
       </c>
@@ -6121,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>483</v>
       </c>
@@ -6129,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>484</v>
       </c>
@@ -6137,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>485</v>
       </c>
@@ -6145,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>486</v>
       </c>
@@ -6153,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>487</v>
       </c>
@@ -6161,7 +7877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>488</v>
       </c>
@@ -6169,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>489</v>
       </c>
@@ -6177,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>490</v>
       </c>
@@ -6185,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>491</v>
       </c>
@@ -6193,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>492</v>
       </c>
@@ -6201,7 +7917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>493</v>
       </c>
@@ -6209,7 +7925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>494</v>
       </c>
@@ -6217,7 +7933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>495</v>
       </c>
@@ -6225,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>496</v>
       </c>
@@ -6233,7 +7949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>497</v>
       </c>
@@ -6241,7 +7957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>498</v>
       </c>
@@ -6249,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>499</v>
       </c>
@@ -6257,13 +7973,833 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>500</v>
       </c>
       <c r="B201" s="5">
         <v>0</v>
       </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B202" s="5"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="5"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B204" s="5"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B205" s="5"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B207" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B208" s="5"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B209" s="5"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B210" s="5"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B211" s="5"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B212" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B213" s="5"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B214" s="5"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B215" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B216" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B217" s="5"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B218" s="5"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B219" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="B220" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="B221" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B222" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B225" s="5"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B227" s="5"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B228" s="5"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B232" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B233" s="5"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B234" s="5"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B236" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="B237" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B239" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B240" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B242" s="5"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B243" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B244" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B246" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B248" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B249" s="5"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B250" s="5"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B252" s="5"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B253" s="5"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B254" s="5"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B255" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="B256" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B257" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B258" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="B259" s="5"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B260" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B262" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B265" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B266" s="5"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B267" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B268" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="B269" s="5"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B270" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B271" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B273" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B274" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B275" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B276" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B277" s="5"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B278" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B279" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B280" s="5"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B281" s="5"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B282" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B283" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B284" s="5"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B285" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B286" s="5"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B287" s="5"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B288" s="5"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B290" s="5"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B291" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B292" s="5"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B293" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B294" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B295" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B296" s="5"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" s="5"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B298" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B299" s="5"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" s="5"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B301" s="5"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="5"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B305" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B308" s="5"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B309" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B310" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B311" s="5"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B312" s="5"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B313" s="5"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B314" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B317" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B318" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B319" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B321" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
